--- a/USAuthors/Data/Author.design.xlsx
+++ b/USAuthors/Data/Author.design.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juchi\Box Sync\Abdi_lab\RM3\Data sets\InPrep\InClassExamples\USAuthors\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A90B3C-242D-453D-899A-C3C1E32D60C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9288FE9-C5F5-4865-96F0-E35924C3F74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5685" windowWidth="38640" windowHeight="21390" xr2:uid="{8205C31E-2908-416D-B534-2ACEB3475067}"/>
+    <workbookView xWindow="-38520" yWindow="-5685" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{8205C31E-2908-416D-B534-2ACEB3475067}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$239</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="283">
   <si>
     <t>Lincoln, Abraham</t>
   </si>
@@ -862,16 +869,44 @@
   </si>
   <si>
     <t>Authors</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of Nationality</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>18-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -897,8 +932,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,6 +955,2600 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ju-Chi" refreshedDate="44495.468280671295" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="239" xr:uid="{04BECE12-03E3-49B3-9871-0302D589EEFA}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Authors" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Language" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="en"/>
+        <s v="fr"/>
+        <s v="other"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nationality" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="au"/>
+        <s v="ca"/>
+        <s v="uk"/>
+        <s v="us"/>
+        <m/>
+        <s v="fr"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="keep" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <b v="0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Supp" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <b v="1"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Time" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <s v="20th "/>
+        <s v="18th"/>
+        <s v="14th"/>
+        <s v="17th"/>
+        <s v="19th"/>
+        <s v="20th"/>
+        <m/>
+        <s v="21st"/>
+        <s v="21th"/>
+        <s v="16th"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Note" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="239">
+  <r>
+    <s v="Lawson, Henry"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="poet"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Hamilton, Francis"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politician"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Chaucer, Geoffrey"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Bacon, Francis"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Hobbes, Thomas"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Lovelace, Richard"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Milton, John"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Shakespeare, William"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Darwin, Erasmus"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="naturalist"/>
+    <x v="1"/>
+    <s v="grandfather of Darwin"/>
+  </r>
+  <r>
+    <s v="Defoe, Daniel"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Johnson, Samuel"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Swift, Jonathan"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Tyson, Edward"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Austen, Jane"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Babbage, Charles"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Blake, William"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Brontë, Anne"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Brontë, Charlotte"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Brontë, Emily"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Carroll, Lewis"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Coleridge, Samuel Taylor"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Darwin, Charles"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="naturalist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Dickens, Charles"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Disraeli, Benjamin, Earl of Beaconsfield"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politician"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Eliot, George"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Engels, Friedrich"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Faraday, Michael"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="FitzGerald, Edward"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Huxley, Thomas Henry"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="naturalist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Keats, John"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Lamb, Charles"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Malthus, T. R. (Thomas Robert)"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Marx, Karl"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Moore, Thomas"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Roget, Peter Mark"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="other"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Scott, Walter"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Scott, Walter Dill"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Shelley, Mary Wollstonecraft"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Spencer, Herbert"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Stevenson, Robert Louis"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Wilde, Oscar"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Chamberlain, George Agnew"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Christie, Agatha"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Churchill, Winston"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politician"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Churchill, Winston"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politician"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Coleridge, Stephen"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Conrad, Joseph"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Doyle, Arthur Conan"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Fleming, J. A. (John Ambrose), Sir"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Graves, Robert"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Hardy, Thomas"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Huxley, Aldous"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Joyce, James"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Kipling, Rudyard"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Kobbé, Gustav"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="writer"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Lawrence, D. H. (David Herbert)"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Maugham, W. Somerset (William Somerset)"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Potter, Beatrix"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="children"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Russell, George William"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Saki"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Shaw, Bernard"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Wallace, Alfred Russel"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="natrualist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Wallace, Edgar"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Wodehouse, P. G. (Pelham Grenville)"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Woolf, Virginia"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Yeats, W. B. (William Butler)"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Baden-Powell, B. H. (Baden Henry)"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Douce, Francis"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Sheridan, Richard Brinsley"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Adams, Samuel"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politicain"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Franklin, Benjamin"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Jefferson, Thomas"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Paine, Thomas"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Adams, Henry"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Arthur, Chester Alan"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Cleveland, Grover"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Cooper, Susan Fenimore"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="naturalist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Hawthorne, Nathaniel"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Hayes, Rutherford Birchard"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Jackson, Andrew"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Jerome, Jerome K. (Jerome Klapka)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Lincoln, Abraham"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="McKinley, William"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Melville, Herman"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Poe, Edgar Allan"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <s v="by Poe"/>
+  </r>
+  <r>
+    <s v="Thoreau, Henry David"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Webster, Noah"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="lexicographer"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Austin, Mary Hunter"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="naturalist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Burgess, Thornton W. (Thornton Waldo)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="chilren"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Burroughs, Edgar Rice"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Burroughs, John"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="naturalist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Bush, George"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Carter, Jimmy"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Coolidge, Calvin"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Crane, Stephen"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Eisenhower, Dwight D. (Dwight David)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Eliot, T. S. (Thomas Stearns)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Fitzgerald, F. Scott (Francis Scott)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Fitzgerald, Robert"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Frost, Robert"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Hoover, Herbert"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Ives, Charles"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="musician"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="James, William"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Johnson, Lyndon B. (Lyndon Baines)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Johnston, Mary"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Kennedy, John F. (John Fitzgerald)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="London, Jack"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Lovecraft, H. P. (Howard Phillips)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Muir, John"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politician"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Nixon, Richard M. (Richard Milhous)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Reagan, Ronald"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Reeve, Arthur B. (Arthur Benjamin)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Stephenson, Nathaniel W. (Nathaniel Wright)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="writer"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Tesla, Nikola"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Train, Arthur Cheney"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Truman, Harry S."/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Twain, Mark"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Van Dyke, Henry"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Webster, Jean"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Wilson, Woodrow"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="James, Henry"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Bush, George W. (George Walker)"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="7"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Clinton, Bill"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="president"/>
+    <x v="8"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Whistler, James McNeill"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="artist"/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Abelard, Peter"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Anderson, Sherwood"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Bacon, John M. (John Mackenzie)"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Chopin, Kate"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Darwin, Francis, Sir"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <s v="not Darwin"/>
+  </r>
+  <r>
+    <s v="Drake, Joseph Rodman"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Fox, John"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Huygens, Christiaan"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Monroe, James"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Montagu, Edward Wortley"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Munro, John"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Munro, William Bennett"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Sands, George W."/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Shakespeare (spurious and doubtful works)"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Sylvester, Charles Herbert"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Walters, H. B."/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Montaigne, Michel de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="9"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Corneille, Pierre"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Descartes, René"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="La Bruyère, Jean de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="writer"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="La Fayette, Madame de (Marie-Madeleine Pioche de La Vergne)"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="La Fontaine, Jean de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Molière"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Racine, Jean"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Sévigné, Madame de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Boileau Despréaux, Nicolas"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Diderot, Denis"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Montesquieu, Charles de Secondat, baron de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Prévost, abbé"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Robespierre, Maximilien"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politician"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Voltaire"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Voltaire, Francois-Marie de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Balzac, Honoré de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Barbey d'Aurevilly, J. (Jules)"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Baudelaire, Charles"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Brillat-Savarin"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Champollion, Jean-François"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Chateaubriand, René"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politician"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Daudet, Alphonse"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Dumas, Alexandre"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Flaubert, Gustave"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Gautier, Théophile"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Gounod, Charles"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="musician"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Hugo, Victor"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Itard, Jean Marc Gaspard"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Littré, Emile"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="lexicographer"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Maupassant, Guy de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Mérimée, Prosper"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Michelet, Jules"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Musset, Alfred de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="playwright"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Sand, George"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Stendhal"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Taine, Hippolyte"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="writer"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Talleyrand-Périgord, Charles Maurice de, prince de Bénévent"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="politician"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Tocqueville, Alexis de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="philosopher"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Vallès, Jules"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="writer"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Verlaine, Paul"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Verne, Jules"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Vigny, Alfred de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Viollet-le-Duc, Eugène-Emmanuel"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Zola, Émile"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Adam, Paul"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Alain-Fournier"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Allais, Alphonse"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Claudel, Paul"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Colette"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Fabre, Jean-Henri"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="naturalist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="France, Anatole"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Gide, André"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Huysmans, J.-K. (Joris-Karl)"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Le Bon, Gustave"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Leblanc, Maurice"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Loti, Pierre"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Maspero, G. (Gaston)"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="scientist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Massenet, Jules"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="musician"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Proust, Marcel"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Régnier, Henri de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Renard, Jules"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Rostand, Edmond"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="poet"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Leroux, Gaston"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Bergson, Henri"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Cartier, Jacques"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <s v="French-Canadian"/>
+  </r>
+  <r>
+    <s v="Chrétien, de Troyes, active 12th century"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Du Maurier, George"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Dumas, Alexandre"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Halévy, Ludovic"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Helvetius, Johann Friedrich"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Lafayette, Marie Joseph Paul Yves Roch Gilbert Du Motier, marquis de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Lenclos, Ninon de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Liszt, Franz"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Napoleon III, Emperor of the French"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Proudhon, P.-J. (Pierre-Joseph)"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Rabelais, François"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Rougemont, Louis de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Rousseau, Jean-Jacques"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Saint-Pierre, Bernardin de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Saint-Simon, Louis de Rouvroy, duc de"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Poe, Edgar Allan"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="novelist"/>
+    <x v="4"/>
+    <s v="by Baudelaire"/>
+  </r>
+  <r>
+    <s v="Casanova, Giacomo"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Cherubini, Eugenio"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="D'Annunzio, Gabriele"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Freud, Sigmund"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Hesse, Hermann"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Kandinsky, Wassily"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Mendelssohn-Bartholdy, Felix"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Mozart, Wolfgang Amadeus"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Pirandello, Luigi"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Schopenhauer, Arthur"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Spinoza, Benedictus de"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Wagner, Richard"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="6"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9EEEE8F-FE2C-4F2B-A432-3ACBB7449592}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:J11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="2"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" item="1" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Nationality" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1215,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629592B-0E0F-485D-B1E6-ECE7C0C63CAD}">
   <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1289,7 +3924,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>270</v>
@@ -1298,15 +3933,15 @@
         <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>270</v>
@@ -1315,15 +3950,15 @@
         <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>270</v>
@@ -1340,7 +3975,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>270</v>
@@ -1348,13 +3983,16 @@
       <c r="C7" t="s">
         <v>272</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>270</v>
@@ -1366,12 +4004,12 @@
         <v>242</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>270</v>
@@ -1380,15 +4018,15 @@
         <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>270</v>
@@ -1397,15 +4035,18 @@
         <v>272</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>247</v>
+      </c>
+      <c r="H10" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>270</v>
@@ -1417,12 +4058,12 @@
         <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>270</v>
@@ -1431,15 +4072,15 @@
         <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>270</v>
@@ -1447,19 +4088,16 @@
       <c r="C13" t="s">
         <v>272</v>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
         <v>270</v>
@@ -1468,15 +4106,15 @@
         <v>272</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>270</v>
@@ -1488,12 +4126,12 @@
         <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>270</v>
@@ -1502,15 +4140,15 @@
         <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>270</v>
@@ -1519,15 +4157,15 @@
         <v>272</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>270</v>
@@ -1536,15 +4174,15 @@
         <v>272</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>270</v>
@@ -1552,16 +4190,16 @@
       <c r="C19" t="s">
         <v>272</v>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
+      <c r="F19" t="s">
+        <v>240</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>270</v>
@@ -1573,12 +4211,12 @@
         <v>240</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>270</v>
@@ -1587,15 +4225,15 @@
         <v>272</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="G21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>270</v>
@@ -1604,18 +4242,15 @@
         <v>272</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>270</v>
@@ -1624,13 +4259,13 @@
         <v>272</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1647,7 +4282,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -1664,9 +4299,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>270</v>
@@ -1674,13 +4309,16 @@
       <c r="C26" t="s">
         <v>272</v>
       </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>270</v>
@@ -1689,15 +4327,15 @@
         <v>272</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
         <v>270</v>
@@ -1706,15 +4344,15 @@
         <v>272</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>270</v>
@@ -1723,15 +4361,15 @@
         <v>272</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
         <v>270</v>
@@ -1740,15 +4378,15 @@
         <v>272</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>270</v>
@@ -1763,9 +4401,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
         <v>270</v>
@@ -1774,15 +4412,15 @@
         <v>272</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
         <v>270</v>
@@ -1791,15 +4429,15 @@
         <v>272</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>270</v>
@@ -1808,15 +4446,15 @@
         <v>272</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
         <v>270</v>
@@ -1825,15 +4463,15 @@
         <v>272</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>270</v>
@@ -1842,15 +4480,15 @@
         <v>272</v>
       </c>
       <c r="F36" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>270</v>
@@ -1859,7 +4497,7 @@
         <v>272</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
         <v>239</v>
@@ -1867,7 +4505,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
         <v>270</v>
@@ -1876,15 +4514,15 @@
         <v>272</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>270</v>
@@ -1896,12 +4534,12 @@
         <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
         <v>270</v>
@@ -1910,7 +4548,7 @@
         <v>272</v>
       </c>
       <c r="F40" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
         <v>239</v>
@@ -1918,7 +4556,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>270</v>
@@ -1930,12 +4568,12 @@
         <v>240</v>
       </c>
       <c r="G41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
         <v>270</v>
@@ -1944,15 +4582,15 @@
         <v>272</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s">
         <v>270</v>
@@ -1960,16 +4598,19 @@
       <c r="C43" t="s">
         <v>272</v>
       </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
         <v>270</v>
@@ -1978,7 +4619,7 @@
         <v>272</v>
       </c>
       <c r="F44" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G44" t="s">
         <v>241</v>
@@ -1986,7 +4627,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>270</v>
@@ -1995,15 +4636,15 @@
         <v>272</v>
       </c>
       <c r="F45" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>270</v>
@@ -2012,15 +4653,15 @@
         <v>272</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
         <v>270</v>
@@ -2028,16 +4669,16 @@
       <c r="C47" t="s">
         <v>272</v>
       </c>
-      <c r="F47" t="s">
-        <v>245</v>
+      <c r="D47" t="b">
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>270</v>
@@ -2046,7 +4687,7 @@
         <v>272</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G48" t="s">
         <v>241</v>
@@ -2054,7 +4695,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
         <v>270</v>
@@ -2063,15 +4704,15 @@
         <v>272</v>
       </c>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>270</v>
@@ -2080,15 +4721,15 @@
         <v>272</v>
       </c>
       <c r="F50" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
         <v>270</v>
@@ -2097,7 +4738,7 @@
         <v>272</v>
       </c>
       <c r="F51" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G51" t="s">
         <v>241</v>
@@ -2105,7 +4746,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>270</v>
@@ -2114,15 +4755,15 @@
         <v>272</v>
       </c>
       <c r="F52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
         <v>270</v>
@@ -2131,7 +4772,7 @@
         <v>272</v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
         <v>241</v>
@@ -2139,7 +4780,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
         <v>270</v>
@@ -2156,7 +4797,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
         <v>270</v>
@@ -2168,12 +4809,12 @@
         <v>240</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
         <v>270</v>
@@ -2182,15 +4823,15 @@
         <v>272</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
         <v>270</v>
@@ -2199,15 +4840,15 @@
         <v>272</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
         <v>270</v>
@@ -2224,7 +4865,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>270</v>
@@ -2233,15 +4874,15 @@
         <v>272</v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="G59" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
         <v>270</v>
@@ -2249,13 +4890,16 @@
       <c r="C60" t="s">
         <v>272</v>
       </c>
-      <c r="D60" t="b">
-        <v>0</v>
+      <c r="F60" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
         <v>270</v>
@@ -2264,15 +4908,15 @@
         <v>272</v>
       </c>
       <c r="F61" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>270</v>
@@ -2281,15 +4925,15 @@
         <v>272</v>
       </c>
       <c r="F62" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>270</v>
@@ -2298,15 +4942,15 @@
         <v>272</v>
       </c>
       <c r="F63" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G63" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
         <v>270</v>
@@ -2315,15 +4959,15 @@
         <v>272</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
         <v>270</v>
@@ -2332,7 +4976,7 @@
         <v>272</v>
       </c>
       <c r="F65" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G65" t="s">
         <v>241</v>
@@ -2340,7 +4984,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
         <v>270</v>
@@ -2357,7 +5001,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
         <v>270</v>
@@ -2366,15 +5010,15 @@
         <v>272</v>
       </c>
       <c r="F67" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
         <v>270</v>
@@ -2382,16 +5026,13 @@
       <c r="C68" t="s">
         <v>272</v>
       </c>
-      <c r="F68" t="s">
-        <v>240</v>
-      </c>
-      <c r="G68" t="s">
-        <v>241</v>
+      <c r="D68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
         <v>270</v>
@@ -2399,16 +5040,13 @@
       <c r="C69" t="s">
         <v>272</v>
       </c>
-      <c r="F69" t="s">
-        <v>240</v>
-      </c>
-      <c r="G69" t="s">
-        <v>241</v>
+      <c r="D69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
         <v>270</v>
@@ -2416,16 +5054,13 @@
       <c r="C70" t="s">
         <v>272</v>
       </c>
-      <c r="F70" t="s">
-        <v>242</v>
-      </c>
-      <c r="G70" t="s">
-        <v>241</v>
+      <c r="D70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
         <v>270</v>
@@ -2433,16 +5068,16 @@
       <c r="C71" t="s">
         <v>271</v>
       </c>
-      <c r="D71" t="b">
-        <v>0</v>
+      <c r="F71" t="s">
+        <v>259</v>
       </c>
       <c r="G71" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
         <v>270</v>
@@ -2451,7 +5086,7 @@
         <v>271</v>
       </c>
       <c r="F72" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G72" t="s">
         <v>247</v>
@@ -2459,7 +5094,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
         <v>270</v>
@@ -2474,12 +5109,12 @@
         <v>238</v>
       </c>
       <c r="G73" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
         <v>270</v>
@@ -2488,15 +5123,15 @@
         <v>271</v>
       </c>
       <c r="F74" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="B75" t="s">
         <v>270</v>
@@ -2504,16 +5139,16 @@
       <c r="C75" t="s">
         <v>271</v>
       </c>
-      <c r="F75" t="s">
-        <v>258</v>
+      <c r="D75" t="b">
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
         <v>270</v>
@@ -2521,16 +5156,19 @@
       <c r="C76" t="s">
         <v>271</v>
       </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G76" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
         <v>270</v>
@@ -2538,16 +5176,19 @@
       <c r="C77" t="s">
         <v>271</v>
       </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
       <c r="F77" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
         <v>270</v>
@@ -2555,19 +5196,16 @@
       <c r="C78" t="s">
         <v>271</v>
       </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
       <c r="F78" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G78" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>270</v>
@@ -2575,19 +5213,16 @@
       <c r="C79" t="s">
         <v>271</v>
       </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
       <c r="F79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G79" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
         <v>270</v>
@@ -2602,12 +5237,12 @@
         <v>238</v>
       </c>
       <c r="G80" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
         <v>270</v>
@@ -2625,9 +5260,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
         <v>270</v>
@@ -2635,19 +5270,16 @@
       <c r="C82" t="s">
         <v>271</v>
       </c>
-      <c r="E82" t="b">
-        <v>1</v>
-      </c>
       <c r="F82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
         <v>270</v>
@@ -2662,12 +5294,12 @@
         <v>238</v>
       </c>
       <c r="G83" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
         <v>270</v>
@@ -2675,16 +5307,19 @@
       <c r="C84" t="s">
         <v>271</v>
       </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
       <c r="F84" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G84" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
         <v>270</v>
@@ -2693,15 +5328,15 @@
         <v>271</v>
       </c>
       <c r="F85" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G85" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
         <v>270</v>
@@ -2709,19 +5344,19 @@
       <c r="C86" t="s">
         <v>271</v>
       </c>
-      <c r="E86" t="b">
-        <v>1</v>
-      </c>
       <c r="F86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G86" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="H86" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
         <v>270</v>
@@ -2730,15 +5365,15 @@
         <v>271</v>
       </c>
       <c r="F87" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
         <v>270</v>
@@ -2747,15 +5382,15 @@
         <v>271</v>
       </c>
       <c r="F88" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G88" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="B89" t="s">
         <v>270</v>
@@ -2764,15 +5399,15 @@
         <v>271</v>
       </c>
       <c r="F89" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G89" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
         <v>270</v>
@@ -2781,15 +5416,15 @@
         <v>271</v>
       </c>
       <c r="F90" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
         <v>270</v>
@@ -2798,15 +5433,15 @@
         <v>271</v>
       </c>
       <c r="F91" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G91" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
         <v>270</v>
@@ -2815,15 +5450,15 @@
         <v>271</v>
       </c>
       <c r="F92" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="G92" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
         <v>270</v>
@@ -2838,12 +5473,12 @@
         <v>238</v>
       </c>
       <c r="G93" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
         <v>270</v>
@@ -2861,9 +5496,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
         <v>270</v>
@@ -2871,16 +5506,19 @@
       <c r="C95" t="s">
         <v>271</v>
       </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
       <c r="F95" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="G95" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
         <v>270</v>
@@ -2888,19 +5526,16 @@
       <c r="C96" t="s">
         <v>271</v>
       </c>
-      <c r="E96" t="b">
-        <v>1</v>
-      </c>
       <c r="F96" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G96" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
         <v>270</v>
@@ -2908,16 +5543,19 @@
       <c r="C97" t="s">
         <v>271</v>
       </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
       <c r="F97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G97" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
         <v>270</v>
@@ -2926,15 +5564,15 @@
         <v>271</v>
       </c>
       <c r="F98" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G98" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
         <v>270</v>
@@ -2942,19 +5580,16 @@
       <c r="C99" t="s">
         <v>271</v>
       </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
       <c r="F99" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G99" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
         <v>270</v>
@@ -2963,15 +5598,15 @@
         <v>271</v>
       </c>
       <c r="F100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G100" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
         <v>270</v>
@@ -2979,19 +5614,16 @@
       <c r="C101" t="s">
         <v>271</v>
       </c>
-      <c r="E101" t="b">
-        <v>1</v>
-      </c>
       <c r="F101" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G101" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="B102" t="s">
         <v>270</v>
@@ -2999,16 +5631,19 @@
       <c r="C102" t="s">
         <v>271</v>
       </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
       <c r="F102" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G102" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
         <v>270</v>
@@ -3016,19 +5651,16 @@
       <c r="C103" t="s">
         <v>271</v>
       </c>
-      <c r="E103" t="b">
-        <v>1</v>
-      </c>
       <c r="F103" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G103" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
         <v>270</v>
@@ -3036,19 +5668,16 @@
       <c r="C104" t="s">
         <v>271</v>
       </c>
-      <c r="E104" t="b">
-        <v>1</v>
-      </c>
       <c r="F104" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G104" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
         <v>270</v>
@@ -3056,16 +5685,19 @@
       <c r="C105" t="s">
         <v>271</v>
       </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
       <c r="F105" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G105" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
         <v>270</v>
@@ -3080,9 +5712,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
         <v>270</v>
@@ -3097,12 +5729,12 @@
         <v>238</v>
       </c>
       <c r="G107" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B108" t="s">
         <v>270</v>
@@ -3114,12 +5746,12 @@
         <v>240</v>
       </c>
       <c r="G108" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
         <v>270</v>
@@ -3128,15 +5760,15 @@
         <v>271</v>
       </c>
       <c r="F109" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G109" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="B110" t="s">
         <v>270</v>
@@ -3144,19 +5776,16 @@
       <c r="C110" t="s">
         <v>271</v>
       </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
       <c r="F110" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="G110" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
         <v>270</v>
@@ -3164,16 +5793,19 @@
       <c r="C111" t="s">
         <v>271</v>
       </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
       <c r="F111" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G111" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
         <v>270</v>
@@ -3181,19 +5813,19 @@
       <c r="C112" t="s">
         <v>271</v>
       </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
       <c r="F112" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G112" t="s">
-        <v>239</v>
-      </c>
-      <c r="H112" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B113" t="s">
         <v>270</v>
@@ -3201,11 +5833,8 @@
       <c r="C113" t="s">
         <v>271</v>
       </c>
-      <c r="E113" t="b">
-        <v>1</v>
-      </c>
       <c r="F113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G113" t="s">
         <v>241</v>
@@ -3213,7 +5842,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
         <v>270</v>
@@ -3221,8 +5850,11 @@
       <c r="C114" t="s">
         <v>271</v>
       </c>
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
       <c r="F114" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G114" t="s">
         <v>241</v>
@@ -3230,7 +5862,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
         <v>270</v>
@@ -3238,11 +5870,8 @@
       <c r="C115" t="s">
         <v>271</v>
       </c>
-      <c r="D115" t="b">
-        <v>0</v>
-      </c>
       <c r="F115" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G115" t="s">
         <v>241</v>
@@ -3250,7 +5879,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
         <v>270</v>
@@ -3259,7 +5888,7 @@
         <v>271</v>
       </c>
       <c r="F116" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G116" t="s">
         <v>241</v>
@@ -3267,7 +5896,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
         <v>270</v>
@@ -3275,16 +5904,19 @@
       <c r="C117" t="s">
         <v>271</v>
       </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
       <c r="F117" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
         <v>270</v>
@@ -3301,7 +5933,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="B119" t="s">
         <v>270</v>
@@ -3309,11 +5941,11 @@
       <c r="C119" t="s">
         <v>271</v>
       </c>
-      <c r="E119" t="b">
-        <v>1</v>
+      <c r="D119" t="b">
+        <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G119" t="s">
         <v>241</v>
@@ -3321,7 +5953,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
         <v>270</v>
@@ -3338,7 +5970,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
         <v>270</v>
@@ -3346,11 +5978,11 @@
       <c r="C121" t="s">
         <v>271</v>
       </c>
-      <c r="D121" t="b">
-        <v>0</v>
+      <c r="E121" t="b">
+        <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="s">
         <v>241</v>
@@ -3358,7 +5990,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B122" t="s">
         <v>270</v>
@@ -3370,12 +6002,12 @@
         <v>240</v>
       </c>
       <c r="G122" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
         <v>270</v>
@@ -3383,16 +6015,19 @@
       <c r="C123" t="s">
         <v>271</v>
       </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
       <c r="F123" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G123" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
         <v>270</v>
@@ -3400,16 +6035,19 @@
       <c r="C124" t="s">
         <v>271</v>
       </c>
-      <c r="D124" t="b">
-        <v>0</v>
+      <c r="E124" t="b">
+        <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>268</v>
+        <v>238</v>
+      </c>
+      <c r="G124" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="B125" t="s">
         <v>270</v>
@@ -3417,14 +6055,11 @@
       <c r="C125" t="s">
         <v>271</v>
       </c>
-      <c r="E125" t="b">
-        <v>1</v>
+      <c r="D125" t="b">
+        <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
-      </c>
-      <c r="G125" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -3608,7 +6243,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B142" t="s">
         <v>269</v>
@@ -3617,15 +6252,15 @@
         <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G142" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="B143" t="s">
         <v>269</v>
@@ -3634,15 +6269,15 @@
         <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G143" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
         <v>269</v>
@@ -3651,15 +6286,15 @@
         <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G144" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="B145" t="s">
         <v>269</v>
@@ -3668,15 +6303,15 @@
         <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G145" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="B146" t="s">
         <v>269</v>
@@ -3688,12 +6323,12 @@
         <v>240</v>
       </c>
       <c r="G146" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B147" t="s">
         <v>269</v>
@@ -3705,12 +6340,12 @@
         <v>242</v>
       </c>
       <c r="G147" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="B148" t="s">
         <v>269</v>
@@ -3718,64 +6353,67 @@
       <c r="C148" t="s">
         <v>269</v>
       </c>
-      <c r="D148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
+        <v>246</v>
+      </c>
+      <c r="G148" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>87</v>
+      </c>
+      <c r="B149" t="s">
+        <v>269</v>
+      </c>
+      <c r="C149" t="s">
+        <v>269</v>
+      </c>
+      <c r="F149" t="s">
+        <v>246</v>
+      </c>
+      <c r="G149" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" t="s">
+        <v>269</v>
+      </c>
+      <c r="C150" t="s">
+        <v>269</v>
+      </c>
+      <c r="F150" t="s">
+        <v>240</v>
+      </c>
+      <c r="G150" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>134</v>
       </c>
-      <c r="B149" t="s">
-        <v>269</v>
-      </c>
-      <c r="C149" t="s">
-        <v>269</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="B151" t="s">
+        <v>269</v>
+      </c>
+      <c r="C151" t="s">
+        <v>269</v>
+      </c>
+      <c r="F151" t="s">
         <v>242</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G151" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>138</v>
-      </c>
-      <c r="B150" t="s">
-        <v>269</v>
-      </c>
-      <c r="C150" t="s">
-        <v>269</v>
-      </c>
-      <c r="F150" t="s">
-        <v>248</v>
-      </c>
-      <c r="G150" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>213</v>
-      </c>
-      <c r="B151" t="s">
-        <v>269</v>
-      </c>
-      <c r="C151" t="s">
-        <v>269</v>
-      </c>
-      <c r="D151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B152" t="s">
         <v>269</v>
@@ -3784,15 +6422,15 @@
         <v>269</v>
       </c>
       <c r="F152" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G152" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B153" t="s">
         <v>269</v>
@@ -3801,46 +6439,49 @@
         <v>269</v>
       </c>
       <c r="F153" t="s">
+        <v>245</v>
+      </c>
+      <c r="G153" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>50</v>
+      </c>
+      <c r="B154" t="s">
+        <v>269</v>
+      </c>
+      <c r="C154" t="s">
+        <v>269</v>
+      </c>
+      <c r="F154" t="s">
+        <v>240</v>
+      </c>
+      <c r="G154" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B155" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" t="s">
+        <v>269</v>
+      </c>
+      <c r="F155" t="s">
         <v>252</v>
       </c>
-      <c r="G153" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>184</v>
-      </c>
-      <c r="B154" t="s">
-        <v>269</v>
-      </c>
-      <c r="C154" t="s">
-        <v>269</v>
-      </c>
-      <c r="D154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>175</v>
-      </c>
-      <c r="B155" t="s">
-        <v>269</v>
-      </c>
-      <c r="C155" t="s">
-        <v>269</v>
-      </c>
-      <c r="F155" t="s">
-        <v>242</v>
-      </c>
       <c r="G155" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="B156" t="s">
         <v>269</v>
@@ -3852,12 +6493,12 @@
         <v>240</v>
       </c>
       <c r="G156" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
         <v>269</v>
@@ -3866,15 +6507,15 @@
         <v>269</v>
       </c>
       <c r="F157" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G157" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B158" t="s">
         <v>269</v>
@@ -3889,9 +6530,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
         <v>269</v>
@@ -3900,15 +6541,15 @@
         <v>269</v>
       </c>
       <c r="F159" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G159" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B160" t="s">
         <v>269</v>
@@ -3917,15 +6558,15 @@
         <v>269</v>
       </c>
       <c r="F160" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G160" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="B161" t="s">
         <v>269</v>
@@ -3933,13 +6574,16 @@
       <c r="C161" t="s">
         <v>269</v>
       </c>
-      <c r="D161" t="b">
-        <v>0</v>
+      <c r="F161" t="s">
+        <v>248</v>
+      </c>
+      <c r="G161" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="B162" t="s">
         <v>269</v>
@@ -3948,7 +6592,7 @@
         <v>269</v>
       </c>
       <c r="F162" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G162" t="s">
         <v>239</v>
@@ -3956,7 +6600,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="B163" t="s">
         <v>269</v>
@@ -3964,13 +6608,16 @@
       <c r="C163" t="s">
         <v>269</v>
       </c>
-      <c r="D163" t="b">
-        <v>0</v>
+      <c r="F163" t="s">
+        <v>252</v>
+      </c>
+      <c r="G163" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B164" t="s">
         <v>269</v>
@@ -3979,15 +6626,15 @@
         <v>269</v>
       </c>
       <c r="F164" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="G164" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B165" t="s">
         <v>269</v>
@@ -4004,7 +6651,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B166" t="s">
         <v>269</v>
@@ -4016,7 +6663,7 @@
         <v>240</v>
       </c>
       <c r="G166" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
@@ -4038,7 +6685,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>269</v>
@@ -4047,15 +6694,15 @@
         <v>269</v>
       </c>
       <c r="F168" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="G168" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="B169" t="s">
         <v>269</v>
@@ -4064,7 +6711,7 @@
         <v>269</v>
       </c>
       <c r="F169" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="G169" t="s">
         <v>239</v>
@@ -4072,7 +6719,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="B170" t="s">
         <v>269</v>
@@ -4080,13 +6727,16 @@
       <c r="C170" t="s">
         <v>269</v>
       </c>
-      <c r="D170" t="b">
-        <v>0</v>
+      <c r="F170" t="s">
+        <v>248</v>
+      </c>
+      <c r="G170" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="B171" t="s">
         <v>269</v>
@@ -4094,13 +6744,16 @@
       <c r="C171" t="s">
         <v>269</v>
       </c>
-      <c r="D171" t="b">
-        <v>0</v>
+      <c r="F171" t="s">
+        <v>250</v>
+      </c>
+      <c r="G171" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B172" t="s">
         <v>269</v>
@@ -4117,7 +6770,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B173" t="s">
         <v>269</v>
@@ -4129,12 +6782,12 @@
         <v>240</v>
       </c>
       <c r="G173" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B174" t="s">
         <v>269</v>
@@ -4151,7 +6804,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B175" t="s">
         <v>269</v>
@@ -4160,15 +6813,15 @@
         <v>269</v>
       </c>
       <c r="F175" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G175" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B176" t="s">
         <v>269</v>
@@ -4180,12 +6833,12 @@
         <v>240</v>
       </c>
       <c r="G176" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="B177" t="s">
         <v>269</v>
@@ -4194,15 +6847,15 @@
         <v>269</v>
       </c>
       <c r="F177" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G177" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="B178" t="s">
         <v>269</v>
@@ -4210,13 +6863,16 @@
       <c r="C178" t="s">
         <v>269</v>
       </c>
-      <c r="D178" t="b">
-        <v>0</v>
+      <c r="F178" t="s">
+        <v>257</v>
+      </c>
+      <c r="G178" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="B179" t="s">
         <v>269</v>
@@ -4225,15 +6881,15 @@
         <v>269</v>
       </c>
       <c r="F179" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G179" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B180" t="s">
         <v>269</v>
@@ -4242,15 +6898,15 @@
         <v>269</v>
       </c>
       <c r="F180" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G180" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="B181" t="s">
         <v>269</v>
@@ -4258,13 +6914,16 @@
       <c r="C181" t="s">
         <v>269</v>
       </c>
-      <c r="D181" t="b">
-        <v>0</v>
+      <c r="F181" t="s">
+        <v>257</v>
+      </c>
+      <c r="G181" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B182" t="s">
         <v>269</v>
@@ -4273,15 +6932,15 @@
         <v>269</v>
       </c>
       <c r="F182" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G182" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="B183" t="s">
         <v>269</v>
@@ -4289,13 +6948,16 @@
       <c r="C183" t="s">
         <v>269</v>
       </c>
-      <c r="D183" t="b">
-        <v>0</v>
+      <c r="F183" t="s">
+        <v>240</v>
+      </c>
+      <c r="G183" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B184" t="s">
         <v>269</v>
@@ -4304,7 +6966,7 @@
         <v>269</v>
       </c>
       <c r="F184" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G184" t="s">
         <v>239</v>
@@ -4312,7 +6974,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="B185" t="s">
         <v>269</v>
@@ -4320,16 +6982,19 @@
       <c r="C185" t="s">
         <v>269</v>
       </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
       <c r="F185" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G185" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="B186" t="s">
         <v>269</v>
@@ -4338,15 +7003,15 @@
         <v>269</v>
       </c>
       <c r="F186" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G186" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="B187" t="s">
         <v>269</v>
@@ -4355,7 +7020,7 @@
         <v>269</v>
       </c>
       <c r="F187" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="G187" t="s">
         <v>241</v>
@@ -4363,7 +7028,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B188" t="s">
         <v>269</v>
@@ -4375,12 +7040,12 @@
         <v>240</v>
       </c>
       <c r="G188" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B189" t="s">
         <v>269</v>
@@ -4392,12 +7057,12 @@
         <v>240</v>
       </c>
       <c r="G189" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B190" t="s">
         <v>269</v>
@@ -4406,15 +7071,15 @@
         <v>269</v>
       </c>
       <c r="F190" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G190" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="B191" t="s">
         <v>269</v>
@@ -4423,15 +7088,15 @@
         <v>269</v>
       </c>
       <c r="F191" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G191" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B192" t="s">
         <v>269</v>
@@ -4440,15 +7105,15 @@
         <v>269</v>
       </c>
       <c r="F192" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G192" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="B193" t="s">
         <v>269</v>
@@ -4457,15 +7122,15 @@
         <v>269</v>
       </c>
       <c r="F193" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G193" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="B194" t="s">
         <v>269</v>
@@ -4474,15 +7139,15 @@
         <v>269</v>
       </c>
       <c r="F194" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G194" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="B195" t="s">
         <v>269</v>
@@ -4490,13 +7155,16 @@
       <c r="C195" t="s">
         <v>269</v>
       </c>
-      <c r="D195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F195" t="s">
+        <v>240</v>
+      </c>
+      <c r="G195" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B196" t="s">
         <v>269</v>
@@ -4505,29 +7173,32 @@
         <v>269</v>
       </c>
       <c r="F196" t="s">
+        <v>248</v>
+      </c>
+      <c r="G196" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>111</v>
+      </c>
+      <c r="B197" t="s">
+        <v>269</v>
+      </c>
+      <c r="C197" t="s">
+        <v>269</v>
+      </c>
+      <c r="F197" t="s">
         <v>240</v>
       </c>
-      <c r="G196" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>180</v>
-      </c>
-      <c r="B197" t="s">
-        <v>269</v>
-      </c>
-      <c r="C197" t="s">
-        <v>269</v>
-      </c>
-      <c r="D197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G197" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B198" t="s">
         <v>269</v>
@@ -4542,9 +7213,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="B199" t="s">
         <v>269</v>
@@ -4552,13 +7223,16 @@
       <c r="C199" t="s">
         <v>269</v>
       </c>
-      <c r="D199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F199" t="s">
+        <v>248</v>
+      </c>
+      <c r="G199" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="B200" t="s">
         <v>269</v>
@@ -4567,15 +7241,15 @@
         <v>269</v>
       </c>
       <c r="F200" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="G200" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="B201" t="s">
         <v>269</v>
@@ -4584,15 +7258,15 @@
         <v>269</v>
       </c>
       <c r="F201" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G201" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="B202" t="s">
         <v>269</v>
@@ -4601,15 +7275,15 @@
         <v>269</v>
       </c>
       <c r="F202" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G202" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="B203" t="s">
         <v>269</v>
@@ -4618,13 +7292,13 @@
         <v>269</v>
       </c>
       <c r="F203" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G203" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>75</v>
       </c>
@@ -4641,9 +7315,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="B205" t="s">
         <v>269</v>
@@ -4651,13 +7325,16 @@
       <c r="C205" t="s">
         <v>269</v>
       </c>
-      <c r="D205" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F205" t="s">
+        <v>240</v>
+      </c>
+      <c r="G205" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>269</v>
@@ -4669,9 +7346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
         <v>269</v>
@@ -4682,10 +7359,13 @@
       <c r="D207" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B208" t="s">
         <v>269</v>
@@ -4699,7 +7379,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B209" t="s">
         <v>269</v>
@@ -4707,16 +7387,13 @@
       <c r="C209" t="s">
         <v>269</v>
       </c>
-      <c r="F209" t="s">
-        <v>240</v>
-      </c>
-      <c r="G209" t="s">
-        <v>239</v>
+      <c r="D209" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="B210" t="s">
         <v>269</v>
@@ -4724,16 +7401,13 @@
       <c r="C210" t="s">
         <v>269</v>
       </c>
-      <c r="F210" t="s">
-        <v>240</v>
-      </c>
-      <c r="G210" t="s">
-        <v>243</v>
+      <c r="D210" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="B211" t="s">
         <v>269</v>
@@ -4741,16 +7415,13 @@
       <c r="C211" t="s">
         <v>269</v>
       </c>
-      <c r="F211" t="s">
-        <v>240</v>
-      </c>
-      <c r="G211" t="s">
-        <v>239</v>
+      <c r="D211" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="B212" t="s">
         <v>269</v>
@@ -4758,16 +7429,13 @@
       <c r="C212" t="s">
         <v>269</v>
       </c>
-      <c r="F212" t="s">
-        <v>257</v>
-      </c>
-      <c r="G212" t="s">
-        <v>239</v>
+      <c r="D212" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>269</v>
@@ -4775,16 +7443,13 @@
       <c r="C213" t="s">
         <v>269</v>
       </c>
-      <c r="F213" t="s">
-        <v>252</v>
-      </c>
-      <c r="G213" t="s">
-        <v>239</v>
+      <c r="D213" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
         <v>269</v>
@@ -4792,16 +7457,13 @@
       <c r="C214" t="s">
         <v>269</v>
       </c>
-      <c r="F214" t="s">
-        <v>245</v>
-      </c>
-      <c r="G214" t="s">
-        <v>239</v>
+      <c r="D214" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B215" t="s">
         <v>269</v>
@@ -4809,16 +7471,13 @@
       <c r="C215" t="s">
         <v>269</v>
       </c>
-      <c r="F215" t="s">
-        <v>257</v>
-      </c>
-      <c r="G215" t="s">
-        <v>239</v>
+      <c r="D215" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="B216" t="s">
         <v>269</v>
@@ -4826,16 +7485,13 @@
       <c r="C216" t="s">
         <v>269</v>
       </c>
-      <c r="F216" t="s">
-        <v>242</v>
-      </c>
-      <c r="G216" t="s">
-        <v>239</v>
+      <c r="D216" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="B217" t="s">
         <v>269</v>
@@ -4843,16 +7499,13 @@
       <c r="C217" t="s">
         <v>269</v>
       </c>
-      <c r="F217" t="s">
-        <v>240</v>
-      </c>
-      <c r="G217" t="s">
-        <v>239</v>
+      <c r="D217" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="B218" t="s">
         <v>269</v>
@@ -4860,16 +7513,13 @@
       <c r="C218" t="s">
         <v>269</v>
       </c>
-      <c r="F218" t="s">
-        <v>242</v>
-      </c>
-      <c r="G218" t="s">
-        <v>239</v>
+      <c r="D218" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="B219" t="s">
         <v>269</v>
@@ -4880,16 +7530,10 @@
       <c r="D219" t="b">
         <v>0</v>
       </c>
-      <c r="F219" t="s">
-        <v>248</v>
-      </c>
-      <c r="G219" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="B220" t="s">
         <v>269</v>
@@ -4897,16 +7541,13 @@
       <c r="C220" t="s">
         <v>269</v>
       </c>
-      <c r="F220" t="s">
-        <v>240</v>
-      </c>
-      <c r="G220" t="s">
-        <v>247</v>
+      <c r="D220" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B221" t="s">
         <v>269</v>
@@ -4914,16 +7555,13 @@
       <c r="C221" t="s">
         <v>269</v>
       </c>
-      <c r="F221" t="s">
-        <v>240</v>
-      </c>
-      <c r="G221" t="s">
-        <v>247</v>
+      <c r="D221" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="B222" t="s">
         <v>269</v>
@@ -4931,11 +7569,8 @@
       <c r="C222" t="s">
         <v>269</v>
       </c>
-      <c r="F222" t="s">
-        <v>240</v>
-      </c>
-      <c r="G222" t="s">
-        <v>239</v>
+      <c r="D222" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -5091,11 +7726,420 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H235">
-    <sortCondition ref="B2:B235"/>
-    <sortCondition ref="C2:C235"/>
-    <sortCondition ref="A2:A235"/>
+  <autoFilter ref="A1:H239" xr:uid="{4629592B-0E0F-485D-B1E6-ECE7C0C63CAD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H238">
+    <sortCondition ref="B2:B238"/>
+    <sortCondition ref="C2:C238"/>
+    <sortCondition ref="G2:G238"/>
+    <sortCondition ref="A2:A238"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E585C-7598-487E-8D13-D59FA603C0B2}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>64</v>
+      </c>
+      <c r="G11" s="3">
+        <v>61</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" t="s">
+        <v>239</v>
+      </c>
+      <c r="H19" t="s">
+        <v>281</v>
+      </c>
+      <c r="I19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B20:E20)</f>
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <f>SUM(I20:L20)</f>
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F22" si="0">SUM(B21:E21)</f>
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H22" si="1">SUM(I21:L21)</f>
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>8</v>
+      </c>
+      <c r="H31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/USAuthors/Data/Author.design.xlsx
+++ b/USAuthors/Data/Author.design.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juchi\Box Sync\Abdi_lab\RM3\Data sets\InPrep\InClassExamples\USAuthors\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9288FE9-C5F5-4865-96F0-E35924C3F74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87386417-9BC3-4B00-B735-D611E9111222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5685" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{8205C31E-2908-416D-B534-2ACEB3475067}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8205C31E-2908-416D-B534-2ACEB3475067}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$235</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="280">
   <si>
     <t>Lincoln, Abraham</t>
   </si>
@@ -815,15 +815,6 @@
   </si>
   <si>
     <t>writer</t>
-  </si>
-  <si>
-    <t>chilren</t>
-  </si>
-  <si>
-    <t>politicain</t>
-  </si>
-  <si>
-    <t>natrualist</t>
   </si>
   <si>
     <t>16th</t>
@@ -3421,7 +3412,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9EEEE8F-FE2C-4F2B-A432-3ACBB7449592}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9EEEE8F-FE2C-4F2B-A432-3ACBB7449592}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3850,8 +3841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629592B-0E0F-485D-B1E6-ECE7C0C63CAD}">
   <dimension ref="A1:H235"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,7 +3852,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
         <v>231</v>
@@ -3890,10 +3881,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
         <v>270</v>
-      </c>
-      <c r="C2" t="s">
-        <v>273</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -3910,10 +3901,10 @@
         <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
         <v>252</v>
@@ -3927,10 +3918,10 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
         <v>242</v>
@@ -3944,10 +3935,10 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
         <v>245</v>
@@ -3961,10 +3952,10 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
         <v>245</v>
@@ -3978,10 +3969,10 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
         <v>242</v>
@@ -3995,10 +3986,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
         <v>242</v>
@@ -4012,10 +4003,10 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
         <v>246</v>
@@ -4029,10 +4020,10 @@
         <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
         <v>253</v>
@@ -4041,7 +4032,7 @@
         <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4049,10 +4040,10 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
         <v>240</v>
@@ -4066,10 +4057,10 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
         <v>246</v>
@@ -4083,10 +4074,10 @@
         <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
         <v>242</v>
@@ -4100,10 +4091,10 @@
         <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
         <v>248</v>
@@ -4117,10 +4108,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
         <v>240</v>
@@ -4134,10 +4125,10 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
         <v>248</v>
@@ -4151,10 +4142,10 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F17" t="s">
         <v>242</v>
@@ -4168,10 +4159,10 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F18" t="s">
         <v>240</v>
@@ -4185,10 +4176,10 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
         <v>240</v>
@@ -4202,10 +4193,10 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
         <v>240</v>
@@ -4219,10 +4210,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F21" t="s">
         <v>240</v>
@@ -4236,10 +4227,10 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
         <v>242</v>
@@ -4253,10 +4244,10 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F23" t="s">
         <v>253</v>
@@ -4270,10 +4261,10 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F24" t="s">
         <v>240</v>
@@ -4287,10 +4278,10 @@
         <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F25" t="s">
         <v>252</v>
@@ -4304,10 +4295,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F26" t="s">
         <v>240</v>
@@ -4321,10 +4312,10 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F27" t="s">
         <v>245</v>
@@ -4338,10 +4329,10 @@
         <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F28" t="s">
         <v>248</v>
@@ -4355,10 +4346,10 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F29" t="s">
         <v>242</v>
@@ -4372,10 +4363,10 @@
         <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F30" t="s">
         <v>253</v>
@@ -4389,10 +4380,10 @@
         <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F31" t="s">
         <v>242</v>
@@ -4406,10 +4397,10 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
         <v>242</v>
@@ -4423,10 +4414,10 @@
         <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F33" t="s">
         <v>245</v>
@@ -4440,10 +4431,10 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F34" t="s">
         <v>245</v>
@@ -4457,10 +4448,10 @@
         <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
         <v>242</v>
@@ -4474,10 +4465,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
         <v>244</v>
@@ -4491,10 +4482,10 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F37" t="s">
         <v>240</v>
@@ -4508,10 +4499,10 @@
         <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F38" t="s">
         <v>240</v>
@@ -4525,10 +4516,10 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F39" t="s">
         <v>240</v>
@@ -4542,10 +4533,10 @@
         <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F40" t="s">
         <v>245</v>
@@ -4559,10 +4550,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F41" t="s">
         <v>240</v>
@@ -4576,10 +4567,10 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F42" t="s">
         <v>246</v>
@@ -4593,10 +4584,10 @@
         <v>218</v>
       </c>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4613,10 +4604,10 @@
         <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F44" t="s">
         <v>240</v>
@@ -4630,10 +4621,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F45" t="s">
         <v>252</v>
@@ -4647,10 +4638,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F46" t="s">
         <v>252</v>
@@ -4664,10 +4655,10 @@
         <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4681,10 +4672,10 @@
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
         <v>240</v>
@@ -4698,10 +4689,10 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
         <v>240</v>
@@ -4715,10 +4706,10 @@
         <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F50" t="s">
         <v>248</v>
@@ -4732,10 +4723,10 @@
         <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
         <v>242</v>
@@ -4749,10 +4740,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F52" t="s">
         <v>240</v>
@@ -4766,10 +4757,10 @@
         <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C53" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -4783,10 +4774,10 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C54" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F54" t="s">
         <v>240</v>
@@ -4800,10 +4791,10 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F55" t="s">
         <v>240</v>
@@ -4817,10 +4808,10 @@
         <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
         <v>257</v>
@@ -4834,10 +4825,10 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F57" t="s">
         <v>242</v>
@@ -4851,10 +4842,10 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F58" t="s">
         <v>246</v>
@@ -4868,10 +4859,10 @@
         <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F59" t="s">
         <v>254</v>
@@ -4885,10 +4876,10 @@
         <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F60" t="s">
         <v>242</v>
@@ -4902,10 +4893,10 @@
         <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C61" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F61" t="s">
         <v>240</v>
@@ -4919,10 +4910,10 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F62" t="s">
         <v>246</v>
@@ -4936,13 +4927,13 @@
         <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F63" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G63" t="s">
         <v>241</v>
@@ -4953,10 +4944,10 @@
         <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C64" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F64" t="s">
         <v>240</v>
@@ -4970,10 +4961,10 @@
         <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F65" t="s">
         <v>240</v>
@@ -4987,10 +4978,10 @@
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
         <v>240</v>
@@ -5004,10 +4995,10 @@
         <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F67" t="s">
         <v>242</v>
@@ -5021,10 +5012,10 @@
         <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5035,10 +5026,10 @@
         <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -5049,10 +5040,10 @@
         <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C70" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -5063,13 +5054,13 @@
         <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C71" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
         <v>247</v>
@@ -5080,10 +5071,10 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C72" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F72" t="s">
         <v>248</v>
@@ -5097,10 +5088,10 @@
         <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -5117,10 +5108,10 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F74" t="s">
         <v>245</v>
@@ -5134,10 +5125,10 @@
         <v>194</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -5151,10 +5142,10 @@
         <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
@@ -5171,10 +5162,10 @@
         <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C77" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -5191,10 +5182,10 @@
         <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C78" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F78" t="s">
         <v>253</v>
@@ -5208,10 +5199,10 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F79" t="s">
         <v>240</v>
@@ -5225,10 +5216,10 @@
         <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -5245,10 +5236,10 @@
         <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -5265,10 +5256,10 @@
         <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F82" t="s">
         <v>240</v>
@@ -5282,10 +5273,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -5302,10 +5293,10 @@
         <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -5322,10 +5313,10 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F85" t="s">
         <v>240</v>
@@ -5339,10 +5330,10 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F86" t="s">
         <v>240</v>
@@ -5359,10 +5350,10 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F87" t="s">
         <v>245</v>
@@ -5376,10 +5367,10 @@
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F88" t="s">
         <v>250</v>
@@ -5393,10 +5384,10 @@
         <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F89" t="s">
         <v>253</v>
@@ -5410,13 +5401,13 @@
         <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C90" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F90" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G90" t="s">
         <v>241</v>
@@ -5427,10 +5418,10 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F91" t="s">
         <v>240</v>
@@ -5444,10 +5435,10 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F92" t="s">
         <v>253</v>
@@ -5461,10 +5452,10 @@
         <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
@@ -5481,10 +5472,10 @@
         <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -5501,10 +5492,10 @@
         <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -5521,10 +5512,10 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F96" t="s">
         <v>242</v>
@@ -5538,10 +5529,10 @@
         <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -5558,10 +5549,10 @@
         <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C98" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F98" t="s">
         <v>242</v>
@@ -5575,10 +5566,10 @@
         <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C99" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F99" t="s">
         <v>240</v>
@@ -5592,10 +5583,10 @@
         <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C100" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F100" t="s">
         <v>242</v>
@@ -5609,10 +5600,10 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F101" t="s">
         <v>242</v>
@@ -5626,10 +5617,10 @@
         <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E102" t="b">
         <v>1</v>
@@ -5646,13 +5637,13 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C103" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F103" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G103" t="s">
         <v>241</v>
@@ -5663,10 +5654,10 @@
         <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C104" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F104" t="s">
         <v>248</v>
@@ -5680,10 +5671,10 @@
         <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -5700,10 +5691,10 @@
         <v>80</v>
       </c>
       <c r="B106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C106" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F106" t="s">
         <v>240</v>
@@ -5717,10 +5708,10 @@
         <v>126</v>
       </c>
       <c r="B107" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E107" t="b">
         <v>1</v>
@@ -5737,10 +5728,10 @@
         <v>34</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C108" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F108" t="s">
         <v>240</v>
@@ -5754,10 +5745,10 @@
         <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C109" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F109" t="s">
         <v>240</v>
@@ -5771,10 +5762,10 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C110" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F110" t="s">
         <v>252</v>
@@ -5788,10 +5779,10 @@
         <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C111" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -5808,10 +5799,10 @@
         <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C112" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
@@ -5828,10 +5819,10 @@
         <v>84</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F113" t="s">
         <v>240</v>
@@ -5845,10 +5836,10 @@
         <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C114" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -5865,10 +5856,10 @@
         <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F115" t="s">
         <v>248</v>
@@ -5882,10 +5873,10 @@
         <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C116" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F116" t="s">
         <v>240</v>
@@ -5899,10 +5890,10 @@
         <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C117" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E117" t="b">
         <v>1</v>
@@ -5919,10 +5910,10 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C118" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F118" t="s">
         <v>240</v>
@@ -5936,10 +5927,10 @@
         <v>182</v>
       </c>
       <c r="B119" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C119" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -5956,10 +5947,10 @@
         <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C120" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F120" t="s">
         <v>240</v>
@@ -5973,10 +5964,10 @@
         <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C121" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E121" t="b">
         <v>1</v>
@@ -5993,10 +5984,10 @@
         <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F122" t="s">
         <v>240</v>
@@ -6010,10 +6001,10 @@
         <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C123" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E123" t="b">
         <v>1</v>
@@ -6022,7 +6013,7 @@
         <v>238</v>
       </c>
       <c r="G123" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -6030,10 +6021,10 @@
         <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C124" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E124" t="b">
         <v>1</v>
@@ -6042,7 +6033,7 @@
         <v>238</v>
       </c>
       <c r="G124" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -6050,16 +6041,16 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C125" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -6067,7 +6058,7 @@
         <v>219</v>
       </c>
       <c r="B126" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -6078,7 +6069,7 @@
         <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -6089,7 +6080,7 @@
         <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -6100,7 +6091,7 @@
         <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -6111,13 +6102,13 @@
         <v>209</v>
       </c>
       <c r="B130" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -6125,7 +6116,7 @@
         <v>178</v>
       </c>
       <c r="B131" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
@@ -6136,7 +6127,7 @@
         <v>179</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
@@ -6147,7 +6138,7 @@
         <v>221</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -6158,7 +6149,7 @@
         <v>206</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -6169,7 +6160,7 @@
         <v>229</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -6180,7 +6171,7 @@
         <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
@@ -6191,7 +6182,7 @@
         <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -6202,7 +6193,7 @@
         <v>193</v>
       </c>
       <c r="B138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
@@ -6213,7 +6204,7 @@
         <v>190</v>
       </c>
       <c r="B139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -6224,7 +6215,7 @@
         <v>210</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -6235,7 +6226,7 @@
         <v>230</v>
       </c>
       <c r="B141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -6246,16 +6237,16 @@
         <v>106</v>
       </c>
       <c r="B142" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C142" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
         <v>245</v>
       </c>
       <c r="G142" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -6263,10 +6254,10 @@
         <v>98</v>
       </c>
       <c r="B143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
         <v>246</v>
@@ -6280,10 +6271,10 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C144" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
         <v>245</v>
@@ -6297,10 +6288,10 @@
         <v>159</v>
       </c>
       <c r="B145" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F145" t="s">
         <v>257</v>
@@ -6314,10 +6305,10 @@
         <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C146" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F146" t="s">
         <v>240</v>
@@ -6331,10 +6322,10 @@
         <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F147" t="s">
         <v>242</v>
@@ -6348,10 +6339,10 @@
         <v>90</v>
       </c>
       <c r="B148" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C148" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F148" t="s">
         <v>246</v>
@@ -6365,10 +6356,10 @@
         <v>87</v>
       </c>
       <c r="B149" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C149" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F149" t="s">
         <v>246</v>
@@ -6382,10 +6373,10 @@
         <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C150" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F150" t="s">
         <v>240</v>
@@ -6399,10 +6390,10 @@
         <v>134</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F151" t="s">
         <v>242</v>
@@ -6416,10 +6407,10 @@
         <v>144</v>
       </c>
       <c r="B152" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C152" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F152" t="s">
         <v>245</v>
@@ -6433,10 +6424,10 @@
         <v>166</v>
       </c>
       <c r="B153" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F153" t="s">
         <v>245</v>
@@ -6450,10 +6441,10 @@
         <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C154" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F154" t="s">
         <v>240</v>
@@ -6467,10 +6458,10 @@
         <v>168</v>
       </c>
       <c r="B155" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F155" t="s">
         <v>252</v>
@@ -6484,10 +6475,10 @@
         <v>94</v>
       </c>
       <c r="B156" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F156" t="s">
         <v>240</v>
@@ -6501,10 +6492,10 @@
         <v>176</v>
       </c>
       <c r="B157" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C157" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F157" t="s">
         <v>240</v>
@@ -6518,10 +6509,10 @@
         <v>51</v>
       </c>
       <c r="B158" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C158" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F158" t="s">
         <v>240</v>
@@ -6535,10 +6526,10 @@
         <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F159" t="s">
         <v>240</v>
@@ -6552,10 +6543,10 @@
         <v>142</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C160" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F160" t="s">
         <v>242</v>
@@ -6569,10 +6560,10 @@
         <v>138</v>
       </c>
       <c r="B161" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C161" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F161" t="s">
         <v>248</v>
@@ -6586,10 +6577,10 @@
         <v>149</v>
       </c>
       <c r="B162" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F162" t="s">
         <v>248</v>
@@ -6603,10 +6594,10 @@
         <v>174</v>
       </c>
       <c r="B163" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C163" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F163" t="s">
         <v>252</v>
@@ -6620,10 +6611,10 @@
         <v>82</v>
       </c>
       <c r="B164" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F164" t="s">
         <v>240</v>
@@ -6637,10 +6628,10 @@
         <v>71</v>
       </c>
       <c r="B165" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C165" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F165" t="s">
         <v>240</v>
@@ -6654,10 +6645,10 @@
         <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C166" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F166" t="s">
         <v>240</v>
@@ -6671,10 +6662,10 @@
         <v>156</v>
       </c>
       <c r="B167" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C167" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F167" t="s">
         <v>242</v>
@@ -6688,13 +6679,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C168" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F168" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G168" t="s">
         <v>239</v>
@@ -6705,10 +6696,10 @@
         <v>23</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C169" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F169" t="s">
         <v>240</v>
@@ -6722,10 +6713,10 @@
         <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C170" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F170" t="s">
         <v>248</v>
@@ -6739,10 +6730,10 @@
         <v>115</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C171" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F171" t="s">
         <v>250</v>
@@ -6756,10 +6747,10 @@
         <v>57</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C172" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F172" t="s">
         <v>240</v>
@@ -6773,10 +6764,10 @@
         <v>95</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C173" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F173" t="s">
         <v>240</v>
@@ -6790,10 +6781,10 @@
         <v>161</v>
       </c>
       <c r="B174" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C174" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F174" t="s">
         <v>248</v>
@@ -6807,10 +6798,10 @@
         <v>109</v>
       </c>
       <c r="B175" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C175" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F175" t="s">
         <v>246</v>
@@ -6824,10 +6815,10 @@
         <v>92</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C176" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F176" t="s">
         <v>240</v>
@@ -6841,10 +6832,10 @@
         <v>64</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C177" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F177" t="s">
         <v>240</v>
@@ -6858,10 +6849,10 @@
         <v>99</v>
       </c>
       <c r="B178" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C178" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F178" t="s">
         <v>257</v>
@@ -6875,10 +6866,10 @@
         <v>163</v>
       </c>
       <c r="B179" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C179" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F179" t="s">
         <v>252</v>
@@ -6892,10 +6883,10 @@
         <v>66</v>
       </c>
       <c r="B180" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C180" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F180" t="s">
         <v>245</v>
@@ -6909,10 +6900,10 @@
         <v>158</v>
       </c>
       <c r="B181" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C181" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F181" t="s">
         <v>257</v>
@@ -6926,10 +6917,10 @@
         <v>114</v>
       </c>
       <c r="B182" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C182" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F182" t="s">
         <v>242</v>
@@ -6943,10 +6934,10 @@
         <v>18</v>
       </c>
       <c r="B183" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C183" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F183" t="s">
         <v>240</v>
@@ -6960,10 +6951,10 @@
         <v>110</v>
       </c>
       <c r="B184" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C184" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F184" t="s">
         <v>242</v>
@@ -6977,10 +6968,10 @@
         <v>224</v>
       </c>
       <c r="B185" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C185" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
@@ -6997,10 +6988,10 @@
         <v>72</v>
       </c>
       <c r="B186" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C186" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F186" t="s">
         <v>240</v>
@@ -7014,10 +7005,10 @@
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C187" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F187" t="s">
         <v>240</v>
@@ -7031,10 +7022,10 @@
         <v>140</v>
       </c>
       <c r="B188" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C188" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F188" t="s">
         <v>240</v>
@@ -7048,10 +7039,10 @@
         <v>154</v>
       </c>
       <c r="B189" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C189" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F189" t="s">
         <v>240</v>
@@ -7065,10 +7056,10 @@
         <v>175</v>
       </c>
       <c r="B190" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C190" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F190" t="s">
         <v>242</v>
@@ -7082,10 +7073,10 @@
         <v>143</v>
       </c>
       <c r="B191" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C191" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F191" t="s">
         <v>240</v>
@@ -7099,10 +7090,10 @@
         <v>83</v>
       </c>
       <c r="B192" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C192" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F192" t="s">
         <v>253</v>
@@ -7116,10 +7107,10 @@
         <v>86</v>
       </c>
       <c r="B193" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F193" t="s">
         <v>240</v>
@@ -7133,10 +7124,10 @@
         <v>145</v>
       </c>
       <c r="B194" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C194" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F194" t="s">
         <v>240</v>
@@ -7150,10 +7141,10 @@
         <v>151</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F195" t="s">
         <v>240</v>
@@ -7167,10 +7158,10 @@
         <v>48</v>
       </c>
       <c r="B196" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C196" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F196" t="s">
         <v>248</v>
@@ -7184,10 +7175,10 @@
         <v>111</v>
       </c>
       <c r="B197" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C197" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F197" t="s">
         <v>240</v>
@@ -7201,10 +7192,10 @@
         <v>93</v>
       </c>
       <c r="B198" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C198" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F198" t="s">
         <v>240</v>
@@ -7218,10 +7209,10 @@
         <v>150</v>
       </c>
       <c r="B199" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C199" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F199" t="s">
         <v>248</v>
@@ -7235,13 +7226,13 @@
         <v>171</v>
       </c>
       <c r="B200" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C200" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F200" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G200" t="s">
         <v>241</v>
@@ -7252,10 +7243,10 @@
         <v>100</v>
       </c>
       <c r="B201" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C201" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F201" t="s">
         <v>240</v>
@@ -7269,10 +7260,10 @@
         <v>165</v>
       </c>
       <c r="B202" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C202" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F202" t="s">
         <v>242</v>
@@ -7286,10 +7277,10 @@
         <v>113</v>
       </c>
       <c r="B203" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C203" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F203" t="s">
         <v>240</v>
@@ -7303,10 +7294,10 @@
         <v>75</v>
       </c>
       <c r="B204" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C204" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F204" t="s">
         <v>242</v>
@@ -7320,10 +7311,10 @@
         <v>31</v>
       </c>
       <c r="B205" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C205" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F205" t="s">
         <v>240</v>
@@ -7337,10 +7328,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C206" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
@@ -7351,16 +7342,16 @@
         <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C207" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -7368,10 +7359,10 @@
         <v>184</v>
       </c>
       <c r="B208" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C208" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -7382,10 +7373,10 @@
         <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C209" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D209" t="b">
         <v>0</v>
@@ -7396,10 +7387,10 @@
         <v>71</v>
       </c>
       <c r="B210" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C210" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -7410,10 +7401,10 @@
         <v>202</v>
       </c>
       <c r="B211" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C211" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
@@ -7424,10 +7415,10 @@
         <v>220</v>
       </c>
       <c r="B212" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
@@ -7438,10 +7429,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C213" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
@@ -7452,10 +7443,10 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C214" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
@@ -7466,10 +7457,10 @@
         <v>198</v>
       </c>
       <c r="B215" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C215" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -7480,10 +7471,10 @@
         <v>228</v>
       </c>
       <c r="B216" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C216" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -7494,10 +7485,10 @@
         <v>180</v>
       </c>
       <c r="B217" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C217" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
@@ -7508,10 +7499,10 @@
         <v>189</v>
       </c>
       <c r="B218" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C218" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
@@ -7522,10 +7513,10 @@
         <v>188</v>
       </c>
       <c r="B219" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C219" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
@@ -7536,10 +7527,10 @@
         <v>199</v>
       </c>
       <c r="B220" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C220" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
@@ -7550,10 +7541,10 @@
         <v>195</v>
       </c>
       <c r="B221" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C221" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -7564,10 +7555,10 @@
         <v>201</v>
       </c>
       <c r="B222" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C222" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
@@ -7578,10 +7569,10 @@
         <v>69</v>
       </c>
       <c r="B223" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C223" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F223" t="s">
         <v>240</v>
@@ -7726,7 +7717,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H239" xr:uid="{4629592B-0E0F-485D-B1E6-ECE7C0C63CAD}"/>
+  <autoFilter ref="A1:H235" xr:uid="{4629592B-0E0F-485D-B1E6-ECE7C0C63CAD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H238">
     <sortCondition ref="B2:B238"/>
     <sortCondition ref="C2:C238"/>
@@ -7741,7 +7732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E585C-7598-487E-8D13-D59FA603C0B2}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -7762,7 +7753,7 @@
         <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -7770,26 +7761,26 @@
         <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
         <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
         <v>243</v>
@@ -7807,15 +7798,15 @@
         <v>249</v>
       </c>
       <c r="I5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7833,7 +7824,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -7861,7 +7852,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -7887,7 +7878,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7911,7 +7902,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7925,7 +7916,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -7979,7 +7970,7 @@
         <v>251</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
         <v>243</v>
@@ -7988,13 +7979,13 @@
         <v>247</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G19" t="s">
         <v>239</v>
       </c>
       <c r="H19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I19" t="s">
         <v>241</v>
@@ -8080,18 +8071,18 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
         <v>239</v>
       </c>
       <c r="H28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F29">
         <v>16</v>
@@ -8105,7 +8096,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F30">
         <v>11</v>
@@ -8119,7 +8110,7 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -8133,7 +8124,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F32">
         <v>1</v>
